--- a/excels/pings/01alpha_20n_auckland.xlsx
+++ b/excels/pings/01alpha_20n_auckland.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="12">
   <si>
     <t>ip</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve"> no se puede calcular el throughput</t>
+  </si>
+  <si>
+    <t>ertt avg</t>
   </si>
 </sst>
 </file>
@@ -875,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I161"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="F163" sqref="F163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -886,7 +889,7 @@
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5254,6 +5257,15 @@
       </c>
       <c r="H161" s="1">
         <v>5.6526914440900002</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="F162" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G162" s="1">
+        <f>SUM(G2:G161)/ROWS(G2:G161)</f>
+        <v>0.33958709796489989</v>
       </c>
     </row>
   </sheetData>
